--- a/data/trans_bre/P24_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_4_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:L14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,8 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +544,16 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
       <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -576,22 +580,32 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -606,6 +620,8 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +636,52 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>5,59</t>
+          <t>11,29</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>5,15</t>
+          <t>7,09</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>4,6</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,18</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>147,46%</t>
+          <t>17,85</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>144,42%</t>
+          <t>478,35%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>40,39%</t>
+          <t>132,02%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>141,64%</t>
+          <t>43,84%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>92,1%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>175,22%</t>
         </is>
       </c>
     </row>
@@ -668,42 +694,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-1,22; 13,0</t>
+          <t>2,01; 23,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 11,86</t>
+          <t>-3,94; 19,62</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,02; 10,37</t>
+          <t>-9,9; 18,27</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,8; 15,97</t>
+          <t>-3,64; 26,76</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-34,3; 1234,33</t>
+          <t>3,19; 37,87</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-43,87; 796,42</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-47,24; 293,01</t>
+          <t>-61,59; 1425,15</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-14,16; 531,9</t>
+          <t>-60,9; 621,25</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-23,06; 590,71</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>4,93; 921,58</t>
         </is>
       </c>
     </row>
@@ -720,42 +756,52 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,4</t>
+          <t>4,63</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,48</t>
+          <t>5,05</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5,09</t>
+          <t>7,2</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,61</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>138,82%</t>
+          <t>9,31</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>211,85%</t>
+          <t>357,45%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>172,84%</t>
+          <t>173,03%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>226,58%</t>
+          <t>230,61%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>97,35%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>173,04%</t>
         </is>
       </c>
     </row>
@@ -768,42 +814,52 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-0,03; 5,2</t>
+          <t>1,15; 9,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,07; 9,79</t>
+          <t>0,63; 9,63</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,72; 9,01</t>
+          <t>2,61; 13,03</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,29; 11,1</t>
+          <t>-1,41; 7,88</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-22,72; 672,65</t>
+          <t>3,37; 15,66</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>41,49; 618,17</t>
+          <t>-9,34; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>30,0; 534,93</t>
+          <t>-0,81; 914,09</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>51,7; 709,29</t>
+          <t>28,33; 903,12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-36,44; 495,26</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>35,04; 527,45</t>
         </is>
       </c>
     </row>
@@ -820,42 +876,52 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,18</t>
+          <t>-0,49</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-1,07</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,2</t>
+          <t>-0,57</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>101,61%</t>
+          <t>3,17</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>69,51%</t>
+          <t>45,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-19,13%</t>
+          <t>-23,9%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>-51,54%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>-26,32%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>64,94%</t>
         </is>
       </c>
     </row>
@@ -868,49 +934,59 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 4,63</t>
+          <t>-2,29; 3,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,49; 3,51</t>
+          <t>-3,92; 1,98</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-9,13; 3,12</t>
+          <t>-17,39; 1,18</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-3,79; 3,23</t>
+          <t>-4,34; 2,12</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-64,55; 990,2</t>
+          <t>-2,78; 9,89</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-65,08; 629,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-83,58; 115,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-70,8; 184,75</t>
+          <t>-91,17; 40,12</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-50,74; 429,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +996,52 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>2,68</t>
+          <t>—</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,92</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2,72</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>4,55</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>133,88%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>159,4%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>61,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>137,48%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,52 +1054,190 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0,62; 4,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,81; 6,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,47; 5,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>1,88; 7,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>14,42; 408,54</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>46,74; 376,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 173,12</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>37,36; 330,67</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>3,93</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>2,98</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2,3</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>2,76</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>8,78</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>252,97%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>100,96%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>37,76%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>68,06%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>145,64%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1,63; 6,95</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-0,05; 6,14</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,16; 6,26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 6,23</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>4,06; 13,63</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>36,14; 1209,25</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>-14,82; 307,98</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-29,74; 165,22</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-14,84; 229,26</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>44,46; 320,0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P24_4_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P24_4_R-Estudios-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L14"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -634,359 +643,229 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>11,29</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>7,09</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>4,6</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>10,49</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>17,85</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>478,35%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>132,02%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>43,84%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>92,1%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>175,22%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>11.28968201122701</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>6.683857257910433</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>4.033193790035073</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>11.06879909264169</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>21.06359455898666</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>4.783478364956691</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.333115257575276</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.3930058043443561</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>1.023805805056307</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>2.246564726627223</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>2,01; 23,96</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-3,94; 19,62</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-9,9; 18,27</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>-3,64; 26,76</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>3,19; 37,87</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-61,59; 1425,15</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>-60,9; 621,25</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>-23,06; 590,71</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>4,93; 921,58</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>2.013916890489165</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-3.344843074434124</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-10.23874358969998</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-2.785520459094727</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>6.072507900581022</v>
+      </c>
+      <c r="H5" s="6" t="inlineStr"/>
+      <c r="I5" s="6" t="n">
+        <v>-0.6234520319816397</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>-0.6384252953952089</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>-0.168997980223536</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.2704328233517955</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>23.95525401279324</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>19.01358280187901</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>16.96532459599682</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>27.28171166933894</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>41.39930426636148</v>
+      </c>
+      <c r="H6" s="6" t="inlineStr"/>
+      <c r="I6" s="6" t="n">
+        <v>13.51135709390084</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>5.349084785001999</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>6.19016903337303</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>11.96482520668458</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Secundaria o FP grado sup</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>4,63</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>5,05</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>7,2</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>9,31</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>357,45%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>173,03%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>230,61%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>97,35%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>173,04%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>1,15; 9,04</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>0,63; 9,63</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,61; 13,03</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-1,41; 7,88</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>3,37; 15,66</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-9,34; —</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-0,81; 914,09</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>28,33; 903,12</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>-36,44; 495,26</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>35,04; 527,45</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>4.625776312459464</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>4.706630241229731</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.828153766731453</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>3.10515118429382</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>9.052143300901216</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>3.574473824302075</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.773030418325085</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>2.205342269671055</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.9688492011531398</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.670404699365126</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Estudios universitarios o más</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,73</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>-0,49</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>-4,33</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-0,57</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>3,17</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>45,91%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-23,9%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-51,54%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>-26,32%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>64,94%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1.148101045546252</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>0.6888708981738273</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>2.186837403616002</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-1.380998728622837</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>3.313926386915736</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.09341651587226828</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.04054930061923599</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.2239303194444466</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>-0.3833352065170166</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.3304050521684607</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-2,29; 3,96</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>-3,92; 1,98</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-17,39; 1,18</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-4,34; 2,12</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>-2,78; 9,89</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>-91,17; 40,12</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-50,74; 429,92</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>9.035983546344776</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>8.912406769990261</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>12.43464039784244</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>7.743644378956029</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>15.14979286309296</v>
+      </c>
+      <c r="H9" s="6" t="inlineStr"/>
+      <c r="I9" s="6" t="n">
+        <v>8.943959971782865</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>8.697334932653296</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>4.936439383088686</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>4.983879536521957</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>No Pertenece a Medición</t>
+          <t>Estudios universitarios o más</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -994,252 +873,235 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.7296482649551548</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>-0.2611212829046566</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-4.283057734912926</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-0.4807554246971461</v>
+      </c>
+      <c r="G10" s="5" t="n">
+        <v>2.974975038181447</v>
+      </c>
+      <c r="H10" s="6" t="n">
+        <v>0.4590974797815536</v>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>-0.1402598935495845</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.5100473573677096</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>-0.238597948254056</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.6131624004673134</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-2.293305432138907</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-3.437016938304158</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-17.49156844137486</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-4.061419183840079</v>
+      </c>
+      <c r="G11" s="5" t="n">
+        <v>-2.83176909718427</v>
+      </c>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="n">
+        <v>-0.9136800725913546</v>
+      </c>
+      <c r="K11" s="6" t="inlineStr"/>
+      <c r="L11" s="6" t="n">
+        <v>-0.5233429867162207</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>3.957315326890094</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>2.120015900025434</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>1.4208366441426</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>2.041863668214915</v>
+      </c>
+      <c r="G12" s="5" t="n">
+        <v>9.368600104745294</v>
+      </c>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="n">
+        <v>0.4410941514329454</v>
+      </c>
+      <c r="K12" s="6" t="inlineStr"/>
+      <c r="L12" s="6" t="n">
+        <v>3.863396787075602</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="B12" s="3" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C12" s="2" t="inlineStr">
-        <is>
-          <t>3,93</t>
-        </is>
-      </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>2,98</t>
-        </is>
-      </c>
-      <c r="E12" s="2" t="inlineStr">
-        <is>
-          <t>2,3</t>
-        </is>
-      </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>2,76</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>8,78</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>252,97%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>100,96%</t>
-        </is>
-      </c>
-      <c r="J12" s="2" t="inlineStr">
-        <is>
-          <t>37,76%</t>
-        </is>
-      </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>68,06%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>145,64%</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n"/>
-      <c r="B13" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C13" s="2" t="inlineStr">
-        <is>
-          <t>1,63; 6,95</t>
-        </is>
-      </c>
-      <c r="D13" s="2" t="inlineStr">
-        <is>
-          <t>-0,05; 6,14</t>
-        </is>
-      </c>
-      <c r="E13" s="2" t="inlineStr">
-        <is>
-          <t>-2,16; 6,26</t>
-        </is>
-      </c>
-      <c r="F13" s="2" t="inlineStr">
-        <is>
-          <t>-0,66; 6,23</t>
-        </is>
-      </c>
-      <c r="G13" s="2" t="inlineStr">
-        <is>
-          <t>4,06; 13,63</t>
-        </is>
-      </c>
-      <c r="H13" s="2" t="inlineStr">
-        <is>
-          <t>36,14; 1209,25</t>
-        </is>
-      </c>
-      <c r="I13" s="2" t="inlineStr">
-        <is>
-          <t>-14,82; 307,98</t>
-        </is>
-      </c>
-      <c r="J13" s="2" t="inlineStr">
-        <is>
-          <t>-29,74; 165,22</t>
-        </is>
-      </c>
-      <c r="K13" s="2" t="inlineStr">
-        <is>
-          <t>-14,84; 229,26</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>44,46; 320,0</t>
-        </is>
+      <c r="C13" s="5" t="n">
+        <v>3.925415428219407</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>2.93057838472444</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>2.21156361311743</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.034810898820389</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>9.241299088801432</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>2.529698137060781</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.094204789226338</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.3693611604451996</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.7884604940563668</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.57091606216093</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1.626538203674875</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>0.1362387072121224</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-2.23368126374138</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.4406085512602781</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>4.552209787509135</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>0.3613689172345404</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.08442232934188214</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.3169339967469931</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>-0.1128297023573985</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.5546169205247091</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>6.951180682313771</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>5.918891944097502</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>6.120758356487439</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>6.470194381470877</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>14.23076117777547</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>12.09247854164212</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>3.224427445159144</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>1.604150505151828</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>2.54687993323619</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>3.413648312965762</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A4:A5"/>
+  <mergeCells count="7">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
